--- a/biology/Zoologie/Johann_Christian_Ludwig_Hellwig/Johann_Christian_Ludwig_Hellwig.xlsx
+++ b/biology/Zoologie/Johann_Christian_Ludwig_Hellwig/Johann_Christian_Ludwig_Hellwig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Christian Ludwig Hellwig est un entomologiste allemand, né le 8 novembre 1743 à Gartz et mort le 10 octobre 1831.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de mathématique et d'histoire naturelle à l'université de Francfort, il devient, en 1766, conseiller du prince Wilhelm Adolf von Braunschweig (1745-1770), sixième fils du duc Charles Ier de Brunswick, lors de son voyage dans le sud de la Russie.
 En 1771, il enseigne dans deux lycées de Brunswick puis obtient la chaire de philosophie de l'université d'Helmstadt. En 1790, il enseigne les mathématiques et les sciences naturelles à l'école militaire de Brunswick.
